--- a/data/RawData/ObsData/2001-2009/01-11-2004.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-11-2004.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\pdfData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A87CC-3337-494C-9539-79856977ABD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EF065-DB6D-45A4-9F9E-4DBF318EAFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="1383">
   <si>
     <r>
       <rPr>
@@ -8789,17 +8789,6 @@
         <family val="1"/>
       </rPr>
       <t>T4-PE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF978C99"/>
-        <rFont val="Amasis MT Pro"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
     </r>
   </si>
   <si>
@@ -9410,7 +9399,7 @@
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9742,12 +9731,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF181515"/>
-      <name val="Amasis MT Pro"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF978C99"/>
       <name val="Amasis MT Pro"/>
       <family val="1"/>
     </font>
@@ -11520,7 +11503,7 @@
   <dimension ref="A1:O422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11591,7 +11574,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>46</v>
@@ -13470,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="J58" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K58" s="31" t="s">
         <v>297</v>
@@ -13629,7 +13612,7 @@
         <v>45</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>297</v>
@@ -14284,13 +14267,13 @@
     <row r="82" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="73" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>375</v>
       </c>
       <c r="D82" s="73" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E82" s="31" t="s">
         <v>240</v>
@@ -14908,7 +14891,7 @@
     </row>
     <row r="101" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>427</v>
@@ -16434,7 +16417,7 @@
       <c r="G152" s="103"/>
       <c r="H152" s="88"/>
       <c r="I152" s="103" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="J152" s="103" t="s">
         <v>576</v>
@@ -16524,13 +16507,13 @@
       <c r="H155" s="88"/>
       <c r="I155" s="39"/>
       <c r="J155" s="182" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="K155" s="31" t="s">
         <v>595</v>
       </c>
       <c r="L155" s="182" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="M155" s="31" t="s">
         <v>761</v>
@@ -16555,13 +16538,13 @@
       <c r="H156" s="88"/>
       <c r="I156" s="39"/>
       <c r="J156" s="73" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="K156" s="31" t="s">
         <v>597</v>
       </c>
       <c r="L156" s="73" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="M156" s="31" t="s">
         <v>240</v>
@@ -16617,7 +16600,7 @@
       <c r="H158" s="88"/>
       <c r="I158" s="39"/>
       <c r="J158" s="73" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="K158" s="39"/>
       <c r="L158" s="39"/>
@@ -16786,7 +16769,7 @@
     </row>
     <row r="164" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="35"/>
@@ -16857,7 +16840,7 @@
         <v>45</v>
       </c>
       <c r="J166" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K166" s="31" t="s">
         <v>297</v>
@@ -16975,7 +16958,7 @@
         <v>45</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C170" s="31" t="s">
         <v>297</v>
@@ -17352,7 +17335,7 @@
         <v>45</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C181" s="31" t="s">
         <v>297</v>
@@ -18260,7 +18243,7 @@
       <c r="G208" s="29"/>
       <c r="H208" s="63"/>
       <c r="I208" s="118" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="J208" s="118"/>
       <c r="K208" s="118"/>
@@ -18296,7 +18279,7 @@
         <v>609</v>
       </c>
       <c r="J209" s="118" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K209" s="118" t="s">
         <v>610</v>
@@ -18334,7 +18317,7 @@
       <c r="G210" s="34"/>
       <c r="H210" s="63"/>
       <c r="I210" s="181" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="J210" s="118" t="s">
         <v>836</v>
@@ -18639,7 +18622,7 @@
         <v>609</v>
       </c>
       <c r="J220" s="118" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K220" s="118" t="s">
         <v>610</v>
@@ -19027,7 +19010,7 @@
         <v>45</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C233" s="31" t="s">
         <v>297</v>
@@ -19984,7 +19967,7 @@
         <v>609</v>
       </c>
       <c r="J260" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K260" s="31" t="s">
         <v>974</v>
@@ -20827,7 +20810,7 @@
         <v>45</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C286" s="31" t="s">
         <v>297</v>
@@ -21863,7 +21846,7 @@
       <c r="G316" s="35"/>
       <c r="H316" s="116"/>
       <c r="I316" s="31" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="J316" s="32"/>
       <c r="K316" s="39"/>
@@ -22453,7 +22436,7 @@
         <v>45</v>
       </c>
       <c r="B335" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C335" s="31" t="s">
         <v>1117</v>
@@ -23454,13 +23437,13 @@
         <v>562</v>
       </c>
       <c r="J364" s="31" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K364" s="31" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L364" s="31" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="M364" s="37" t="s">
         <v>1258</v>
@@ -23519,7 +23502,7 @@
       <c r="G366" s="110"/>
       <c r="H366" s="170"/>
       <c r="I366" s="31" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J366" s="32"/>
       <c r="K366" s="39"/>
@@ -23551,19 +23534,19 @@
         <v>45</v>
       </c>
       <c r="J367" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K367" s="31" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L367" s="31" t="s">
         <v>1329</v>
       </c>
-      <c r="L367" s="31" t="s">
+      <c r="M367" s="31" t="s">
         <v>1330</v>
       </c>
-      <c r="M367" s="31" t="s">
+      <c r="N367" s="31" t="s">
         <v>1331</v>
-      </c>
-      <c r="N367" s="31" t="s">
-        <v>1332</v>
       </c>
       <c r="O367" s="110" t="s">
         <v>301</v>
@@ -23589,13 +23572,13 @@
       <c r="G368" s="110"/>
       <c r="H368" s="170"/>
       <c r="I368" s="169" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J368" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K368" s="31" t="s">
         <v>1333</v>
-      </c>
-      <c r="K368" s="31" t="s">
-        <v>1334</v>
       </c>
       <c r="L368" s="31" t="s">
         <v>270</v>
@@ -23627,13 +23610,13 @@
       <c r="H369" s="170"/>
       <c r="I369" s="45"/>
       <c r="J369" s="169" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K369" s="169" t="s">
         <v>752</v>
       </c>
       <c r="L369" s="31" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="M369" s="31" t="s">
         <v>1258</v>
@@ -23662,10 +23645,10 @@
       <c r="H370" s="170"/>
       <c r="I370" s="39"/>
       <c r="J370" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K370" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="K370" s="31" t="s">
-        <v>1336</v>
       </c>
       <c r="L370" s="176">
         <v>461</v>
@@ -23674,7 +23657,7 @@
         <v>1257</v>
       </c>
       <c r="N370" s="31" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O370" s="110"/>
     </row>
@@ -23699,10 +23682,10 @@
       <c r="H371" s="170"/>
       <c r="I371" s="39"/>
       <c r="J371" s="31" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K371" s="31" t="s">
         <v>1338</v>
-      </c>
-      <c r="K371" s="31" t="s">
-        <v>1339</v>
       </c>
       <c r="L371" s="176">
         <v>514</v>
@@ -23711,7 +23694,7 @@
         <v>1258</v>
       </c>
       <c r="N371" s="31" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="O371" s="110"/>
     </row>
@@ -23736,13 +23719,13 @@
       <c r="H372" s="170"/>
       <c r="I372" s="39"/>
       <c r="J372" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K372" s="31" t="s">
         <v>1341</v>
       </c>
-      <c r="K372" s="31" t="s">
-        <v>1342</v>
-      </c>
       <c r="L372" s="31" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="M372" s="31" t="s">
         <v>1257</v>
@@ -23763,13 +23746,13 @@
       <c r="H373" s="170"/>
       <c r="I373" s="39"/>
       <c r="J373" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K373" s="31" t="s">
         <v>1343</v>
       </c>
-      <c r="K373" s="31" t="s">
-        <v>1344</v>
-      </c>
       <c r="L373" s="31" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="M373" s="31" t="s">
         <v>1258</v>
@@ -23804,13 +23787,13 @@
       <c r="H374" s="170"/>
       <c r="I374" s="39"/>
       <c r="J374" s="31" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K374" s="31" t="s">
         <v>1289</v>
       </c>
       <c r="L374" s="31" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="M374" s="31" t="s">
         <v>1258</v>
@@ -23867,16 +23850,16 @@
       <c r="G376" s="110"/>
       <c r="H376" s="170"/>
       <c r="I376" s="31" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J376" s="31" t="s">
         <v>1346</v>
       </c>
-      <c r="J376" s="31" t="s">
+      <c r="K376" s="31" t="s">
         <v>1347</v>
       </c>
-      <c r="K376" s="31" t="s">
-        <v>1348</v>
-      </c>
       <c r="L376" s="31" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="M376" s="31" t="s">
         <v>1257</v>
@@ -23905,13 +23888,13 @@
       <c r="H377" s="170"/>
       <c r="I377" s="39"/>
       <c r="J377" s="31" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K377" s="31" t="s">
         <v>1349</v>
       </c>
-      <c r="K377" s="31" t="s">
-        <v>1350</v>
-      </c>
       <c r="L377" s="31" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="M377" s="31" t="s">
         <v>1258</v>
@@ -23934,13 +23917,13 @@
       <c r="H378" s="170"/>
       <c r="I378" s="39"/>
       <c r="J378" s="31" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K378" s="31" t="s">
         <v>1351</v>
       </c>
-      <c r="K378" s="31" t="s">
-        <v>1352</v>
-      </c>
       <c r="L378" s="31" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M378" s="31" t="s">
         <v>1257</v>
@@ -23959,10 +23942,10 @@
       <c r="H379" s="170"/>
       <c r="I379" s="39"/>
       <c r="J379" s="31" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K379" s="31" t="s">
         <v>1353</v>
-      </c>
-      <c r="K379" s="31" t="s">
-        <v>1354</v>
       </c>
       <c r="L379" s="176">
         <v>460</v>
@@ -23986,13 +23969,13 @@
       <c r="H380" s="166"/>
       <c r="I380" s="39"/>
       <c r="J380" s="31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K380" s="31" t="s">
         <v>1355</v>
       </c>
-      <c r="K380" s="31" t="s">
-        <v>1356</v>
-      </c>
       <c r="L380" s="31" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M380" s="31" t="s">
         <v>1257</v>
@@ -24023,13 +24006,13 @@
       <c r="H381" s="62"/>
       <c r="I381" s="39"/>
       <c r="J381" s="31" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K381" s="31" t="s">
         <v>1357</v>
       </c>
-      <c r="K381" s="31" t="s">
-        <v>1358</v>
-      </c>
       <c r="L381" s="31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="M381" s="31" t="s">
         <v>1258</v>
@@ -24055,7 +24038,7 @@
         <v>508</v>
       </c>
       <c r="K382" s="31" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="L382" s="176">
         <v>508</v>
@@ -24160,7 +24143,7 @@
         <v>511</v>
       </c>
       <c r="K385" s="31" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="L385" s="176">
         <v>511</v>
@@ -24230,7 +24213,7 @@
         <v>557</v>
       </c>
       <c r="K387" s="31" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="L387" s="176">
         <v>557</v>
@@ -24239,7 +24222,7 @@
         <v>1258</v>
       </c>
       <c r="N387" s="31" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="O387" s="32"/>
     </row>
@@ -24267,7 +24250,7 @@
         <v>558</v>
       </c>
       <c r="K388" s="31" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="L388" s="176">
         <v>558</v>
@@ -24276,7 +24259,7 @@
         <v>1258</v>
       </c>
       <c r="N388" s="31" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="O388" s="32"/>
     </row>
@@ -24317,7 +24300,7 @@
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
       <c r="I390" s="169" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J390" s="176">
         <v>494</v>
@@ -24332,7 +24315,7 @@
         <v>1257</v>
       </c>
       <c r="N390" s="31" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O390" s="179"/>
     </row>
@@ -24349,19 +24332,19 @@
       <c r="H391" s="15"/>
       <c r="I391" s="39"/>
       <c r="J391" s="169" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="K391" s="31" t="s">
         <v>1290</v>
       </c>
       <c r="L391" s="169" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="M391" s="31" t="s">
         <v>1258</v>
       </c>
       <c r="N391" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O391" s="179"/>
     </row>
@@ -24370,7 +24353,7 @@
         <v>45</v>
       </c>
       <c r="B392" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C392" s="31" t="s">
         <v>1284</v>
@@ -24390,19 +24373,19 @@
       <c r="H392" s="62"/>
       <c r="I392" s="39"/>
       <c r="J392" s="169" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K392" s="31" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="L392" s="169" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="M392" s="31" t="s">
         <v>1257</v>
       </c>
       <c r="N392" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O392" s="32"/>
     </row>
@@ -24427,19 +24410,19 @@
       <c r="H393" s="62"/>
       <c r="I393" s="39"/>
       <c r="J393" s="169" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="K393" s="31" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="L393" s="169" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="M393" s="31" t="s">
         <v>1258</v>
       </c>
       <c r="N393" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O393" s="32"/>
     </row>
@@ -24462,19 +24445,19 @@
       <c r="H394" s="62"/>
       <c r="I394" s="39"/>
       <c r="J394" s="169" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="K394" s="31" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="L394" s="169" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="M394" s="31" t="s">
         <v>1258</v>
       </c>
       <c r="N394" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O394" s="167"/>
     </row>
@@ -24499,19 +24482,19 @@
       <c r="H395" s="83"/>
       <c r="I395" s="39"/>
       <c r="J395" s="169" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="K395" s="31" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="L395" s="169" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M395" s="31" t="s">
         <v>1258</v>
       </c>
       <c r="N395" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O395" s="167"/>
     </row>
@@ -24536,19 +24519,19 @@
       <c r="H396" s="62"/>
       <c r="I396" s="39"/>
       <c r="J396" s="31" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="K396" s="169" t="s">
         <v>752</v>
       </c>
       <c r="L396" s="31" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M396" s="31" t="s">
         <v>1258</v>
       </c>
       <c r="N396" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="O396" s="167"/>
     </row>
@@ -24936,9 +24919,7 @@
       <c r="E413" s="31" t="s">
         <v>1257</v>
       </c>
-      <c r="F413" s="31" t="s">
-        <v>1321</v>
-      </c>
+      <c r="F413" s="31"/>
       <c r="G413" s="32"/>
       <c r="H413" s="62"/>
       <c r="I413" s="4"/>
@@ -24955,7 +24936,7 @@
         <v>628</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D414" s="176">
         <v>628</v>
@@ -24964,7 +24945,7 @@
         <v>1257</v>
       </c>
       <c r="F414" s="31" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G414" s="32"/>
       <c r="H414" s="62"/>
@@ -24981,7 +24962,7 @@
         <v>630</v>
       </c>
       <c r="C415" s="31" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D415" s="176">
         <v>630</v>
@@ -24990,7 +24971,7 @@
         <v>1257</v>
       </c>
       <c r="F415" s="31" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G415" s="32"/>
       <c r="H415" s="62"/>
@@ -25017,7 +24998,7 @@
     </row>
     <row r="417" spans="1:15" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="180" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B417" s="123">
         <v>675</v>
@@ -25032,7 +25013,7 @@
         <v>761</v>
       </c>
       <c r="F417" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G417" s="31"/>
       <c r="H417" s="47"/>
@@ -25059,7 +25040,7 @@
         <v>628</v>
       </c>
       <c r="F418" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G418" s="31"/>
       <c r="H418" s="21"/>
@@ -25086,7 +25067,7 @@
         <v>602</v>
       </c>
       <c r="F419" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G419" s="31"/>
       <c r="H419" s="162"/>
@@ -25111,7 +25092,7 @@
         <v>628</v>
       </c>
       <c r="F420" s="31" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G420" s="31"/>
       <c r="H420" s="62"/>
@@ -25136,7 +25117,7 @@
         <v>602</v>
       </c>
       <c r="F421" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G421" s="31"/>
       <c r="H421" s="62"/>
